--- a/assets1/result.xlsx
+++ b/assets1/result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
   <si>
     <t/>
   </si>
@@ -80,22 +80,52 @@
     <t>rhhrt</t>
   </si>
   <si>
+    <t>yth</t>
+  </si>
+  <si>
     <t>rtyu</t>
   </si>
   <si>
     <t>trtere</t>
   </si>
   <si>
-    <t>hrtrt</t>
-  </si>
-  <si>
     <t>aga@gmail.com</t>
   </si>
   <si>
     <t>Manager,Accountant</t>
   </si>
   <si>
-    <t>street is missing</t>
+    <t>country</t>
+  </si>
+  <si>
+    <t>kanvi</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>10/11/99</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>ghj</t>
+  </si>
+  <si>
+    <t>tyui</t>
+  </si>
+  <si>
+    <t>wert</t>
+  </si>
+  <si>
+    <t>yhn</t>
+  </si>
+  <si>
+    <t>kanv@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter role</t>
   </si>
   <si>
     <t>Mr.</t>
@@ -113,7 +143,7 @@
     <t>10/11/00</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>uyt</t>
   </si>
   <si>
     <t>tyuj</t>
@@ -122,12 +152,15 @@
     <t>hgf</t>
   </si>
   <si>
-    <t>dev@gmail.com</t>
+    <t>devpg@gmail.com</t>
   </si>
   <si>
     <t>Office staff</t>
   </si>
   <si>
+    <t>updated</t>
+  </si>
+  <si>
     <t>Nandha</t>
   </si>
   <si>
@@ -149,43 +182,7 @@
     <t>iopl</t>
   </si>
   <si>
-    <t>tyui</t>
-  </si>
-  <si>
     <t>nan@gmail.com</t>
-  </si>
-  <si>
-    <t>Manager,Accnt</t>
-  </si>
-  <si>
-    <t>Rolename invalid is missing</t>
-  </si>
-  <si>
-    <t>kanvi</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>10/11/99</t>
-  </si>
-  <si>
-    <t>ghj</t>
-  </si>
-  <si>
-    <t>wert</t>
-  </si>
-  <si>
-    <t>yhn</t>
-  </si>
-  <si>
-    <t>kanv@gmail.com</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>updated</t>
   </si>
 </sst>
 </file>
@@ -236,9 +233,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="16.46875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="17.69921875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="25.46484375" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -251,6 +247,7 @@
     <col min="10" max="10" width="6.5390625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="9.890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -320,19 +317,19 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
         <v>6789.0</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -349,34 +346,34 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7008.0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
@@ -385,45 +382,45 @@
         <v>36</v>
       </c>
       <c r="M3" t="n">
-        <v>9.87654331E9</v>
+        <v>9.9999999E9</v>
       </c>
       <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
-        <v>1001.0</v>
+        <v>7008.0</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
@@ -432,7 +429,7 @@
         <v>46</v>
       </c>
       <c r="M4" t="n">
-        <v>9.898989898E9</v>
+        <v>9.87654331E9</v>
       </c>
       <c r="N4" t="s">
         <v>47</v>
@@ -458,34 +455,34 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="n">
-        <v>9.9999999E9</v>
+        <v>9.898989898E9</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
